--- a/data_model_files/daschland (daschland)/resources.xlsx
+++ b/data_model_files/daschland (daschland)/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F72606-4309-344F-A55F-1E4BF676809A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABCEBB9-27E2-8847-B4C9-6C33E4C731A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="5840" windowWidth="39620" windowHeight="24620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14220" yWindow="5500" windowWidth="39620" windowHeight="24620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="85">
   <si>
     <t>name</t>
   </si>
@@ -960,9 +960,6 @@
     <t>0-n</t>
   </si>
   <si>
-    <t>hasEducationGrade</t>
-  </si>
-  <si>
     <t>hasBirthday</t>
   </si>
   <si>
@@ -996,19 +993,10 @@
     <t>linkToAliceCharacterID</t>
   </si>
   <si>
-    <t>hasRole</t>
-  </si>
-  <si>
     <t>hasQuote</t>
   </si>
   <si>
-    <t>hasDepartement</t>
-  </si>
-  <si>
     <t>linkToAnimalFriendID</t>
-  </si>
-  <si>
-    <t>hasShortname</t>
   </si>
   <si>
     <t>linkToButlerID</t>
@@ -1026,9 +1014,6 @@
     <t>hasWeight</t>
   </si>
   <si>
-    <t>hasSpeiceList</t>
-  </si>
-  <si>
     <t>hasGenderList</t>
   </si>
   <si>
@@ -1039,9 +1024,6 @@
   </si>
   <si>
     <t>hasGeoname</t>
-  </si>
-  <si>
-    <t>hasCharacterType</t>
   </si>
   <si>
     <t>linkToLocationID</t>
@@ -1087,6 +1069,27 @@
   </si>
   <si>
     <t>Originals</t>
+  </si>
+  <si>
+    <t>linkToFlyerID</t>
+  </si>
+  <si>
+    <t>hasSpecieList</t>
+  </si>
+  <si>
+    <t>hasRoleList</t>
+  </si>
+  <si>
+    <t>hasShortName</t>
+  </si>
+  <si>
+    <t>hasEducationGradeList</t>
+  </si>
+  <si>
+    <t>hasDepartementList</t>
+  </si>
+  <si>
+    <t>hasCharacterTypeList</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1385,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1530,7 +1533,7 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
@@ -1541,7 +1544,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
@@ -1552,7 +1555,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
@@ -1585,10 +1588,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>34</v>
@@ -1596,10 +1599,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>35</v>
@@ -1607,10 +1610,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>36</v>
@@ -2703,7 +2706,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2714,7 +2717,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -2725,7 +2728,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -2736,7 +2739,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -2747,7 +2750,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -3787,7 +3790,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3798,7 +3801,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -3820,7 +3823,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -3831,7 +3834,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -4867,7 +4870,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -4878,7 +4881,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -4919,7 +4922,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -4930,7 +4933,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -4971,7 +4974,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -4982,7 +4985,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -5005,7 +5008,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5029,7 +5032,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -5040,7 +5043,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -8061,7 +8064,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8082,7 +8085,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -8093,7 +8096,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -8104,7 +8107,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -8115,7 +8118,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -8126,7 +8129,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -8149,7 +8152,7 @@
   <sheetViews>
     <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A12"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8171,7 +8174,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -8182,7 +8185,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -8193,7 +8196,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -8204,7 +8207,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -8215,7 +8218,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -8226,7 +8229,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>40</v>
@@ -8237,7 +8240,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>40</v>
@@ -8248,7 +8251,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>40</v>
@@ -8259,7 +8262,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>40</v>
@@ -8270,7 +8273,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>40</v>
@@ -8281,7 +8284,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>40</v>
@@ -11273,7 +11276,7 @@
   <sheetViews>
     <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A15"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11295,7 +11298,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -11306,7 +11309,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -11317,7 +11320,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -11328,7 +11331,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -11339,7 +11342,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -11350,7 +11353,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>40</v>
@@ -11361,7 +11364,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>40</v>
@@ -11372,7 +11375,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>40</v>
@@ -11383,7 +11386,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>40</v>
@@ -11394,7 +11397,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>40</v>
@@ -11405,7 +11408,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>40</v>
@@ -11416,7 +11419,7 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>40</v>
@@ -11427,7 +11430,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>40</v>
@@ -11438,7 +11441,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>40</v>
@@ -11447,7 +11450,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+    </row>
     <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14418,7 +14431,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14441,7 +14454,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -14452,7 +14465,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -14463,7 +14476,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -14474,7 +14487,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -14485,7 +14498,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -17514,7 +17527,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -17525,7 +17538,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -17536,7 +17549,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -17547,7 +17560,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -20573,7 +20586,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -20584,7 +20597,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -20595,7 +20608,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -20606,7 +20619,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -20617,7 +20630,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -20665,7 +20678,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
@@ -20676,7 +20689,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>

--- a/data_model_files/daschland (daschland)/resources.xlsx
+++ b/data_model_files/daschland (daschland)/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABCEBB9-27E2-8847-B4C9-6C33E4C731A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215AE9DA-CF74-3340-94D3-1DEC6F3E00DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="5500" windowWidth="39620" windowHeight="24620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32320" yWindow="5480" windowWidth="39620" windowHeight="24620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -1091,16 +1091,165 @@
   <si>
     <t>hasCharacterTypeList</t>
   </si>
+  <si>
+    <t>Conte de fées</t>
+  </si>
+  <si>
+    <t>Personnage</t>
+  </si>
+  <si>
+    <t>Personnage animal</t>
+  </si>
+  <si>
+    <t>Image Personnage animal</t>
+  </si>
+  <si>
+    <t>Image Personnage</t>
+  </si>
+  <si>
+    <t>Son du personnage</t>
+  </si>
+  <si>
+    <t>Vidéo du personnage</t>
+  </si>
+  <si>
+    <t>Originaux</t>
+  </si>
+  <si>
+    <t>Chapitre de conte de fées</t>
+  </si>
+  <si>
+    <t>Lieu</t>
+  </si>
+  <si>
+    <t>Image Personnage Alice</t>
+  </si>
+  <si>
+    <t>Personnage d'Alice au Pays des Merveilles</t>
+  </si>
+  <si>
+    <t>Oubliettes</t>
+  </si>
+  <si>
+    <t>Segreta</t>
+  </si>
+  <si>
+    <t>Fiaba</t>
+  </si>
+  <si>
+    <t>Capitolo della fiaba</t>
+  </si>
+  <si>
+    <t>Personaggio</t>
+  </si>
+  <si>
+    <t>Personaggio animale</t>
+  </si>
+  <si>
+    <t>Personaggio di Alice nel Paese delle Meraviglie</t>
+  </si>
+  <si>
+    <t>Posizione</t>
+  </si>
+  <si>
+    <t>Immagine</t>
+  </si>
+  <si>
+    <t>Immagine Personaggio animale</t>
+  </si>
+  <si>
+    <t>Immagine Personaggio</t>
+  </si>
+  <si>
+    <t>Immagine personaggio di Alice</t>
+  </si>
+  <si>
+    <t>Suono del personaggio</t>
+  </si>
+  <si>
+    <t>Video del personaggio</t>
+  </si>
+  <si>
+    <t>Originali</t>
+  </si>
+  <si>
+    <t>Märchen</t>
+  </si>
+  <si>
+    <t>Charakter</t>
+  </si>
+  <si>
+    <t>Tierischer Charakter</t>
+  </si>
+  <si>
+    <t>Charakter aus Alice im Wunderland</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>Bild</t>
+  </si>
+  <si>
+    <t>Bild Charakter</t>
+  </si>
+  <si>
+    <t>Bild Charakter Alice</t>
+  </si>
+  <si>
+    <t>Sound des Charakters</t>
+  </si>
+  <si>
+    <t>Video des Charakters</t>
+  </si>
+  <si>
+    <t>Märchenkapitel</t>
+  </si>
+  <si>
+    <t>Bild Tierischer Charakter</t>
+  </si>
+  <si>
+    <t>Originaldateien</t>
+  </si>
+  <si>
+    <t>Kerker</t>
+  </si>
+  <si>
+    <t>Fiche d'information</t>
+  </si>
+  <si>
+    <t>Information sheet</t>
+  </si>
+  <si>
+    <t>Infoblatt</t>
+  </si>
+  <si>
+    <t>Foglio informativo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1152,21 +1301,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1385,15 +1536,16 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.83203125" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="8" width="12" customWidth="1"/>
     <col min="9" max="10" width="10.5" customWidth="1"/>
@@ -1461,6 +1613,15 @@
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
       <c r="L2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1472,6 +1633,15 @@
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>100</v>
+      </c>
       <c r="L3" s="3" t="s">
         <v>16</v>
       </c>
@@ -1483,6 +1653,15 @@
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
       <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1494,6 +1673,15 @@
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
       <c r="L5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1505,6 +1693,15 @@
       <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1516,6 +1713,15 @@
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
       <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1527,6 +1733,15 @@
       <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>105</v>
+      </c>
       <c r="L8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1538,6 +1753,15 @@
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
       <c r="L9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1549,6 +1773,15 @@
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
       <c r="L10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1560,6 +1793,15 @@
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
       <c r="L11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1571,6 +1813,15 @@
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
       <c r="L12" s="3" t="s">
         <v>30</v>
       </c>
@@ -1582,6 +1833,15 @@
       <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
       <c r="L13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1593,6 +1853,15 @@
       <c r="B14" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
       <c r="L14" s="3" t="s">
         <v>34</v>
       </c>
@@ -1602,7 +1871,16 @@
         <v>75</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" t="s">
+        <v>129</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>35</v>
@@ -1614,6 +1892,15 @@
       </c>
       <c r="B16" s="3" t="s">
         <v>76</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>36</v>

--- a/data_model_files/daschland (daschland)/resources.xlsx
+++ b/data_model_files/daschland (daschland)/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215AE9DA-CF74-3340-94D3-1DEC6F3E00DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B1E9BC-EEF1-5A4A-9ED5-89852563C1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32320" yWindow="5480" windowWidth="39620" windowHeight="24620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="130">
   <si>
     <t>name</t>
   </si>
@@ -1535,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -2903,11 +2903,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2921,6 +2921,17 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2936,11 +2947,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2954,6 +2965,17 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20851,7 +20873,7 @@
   <sheetViews>
     <sheetView zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20943,7 +20965,7 @@
   <sheetViews>
     <sheetView zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A3"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data_model_files/daschland (daschland)/resources.xlsx
+++ b/data_model_files/daschland (daschland)/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B1E9BC-EEF1-5A4A-9ED5-89852563C1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A421C2-B734-0B4F-BD64-597A3E138028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="500" windowWidth="34220" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1546,10 +1546,10 @@
     <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="8" width="12" customWidth="1"/>
-    <col min="9" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.5" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="12" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="10.5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="25.1640625" customWidth="1"/>
     <col min="13" max="26" width="10.5" customWidth="1"/>
   </cols>
@@ -2905,7 +2905,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+    <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>

--- a/data_model_files/daschland (daschland)/resources.xlsx
+++ b/data_model_files/daschland (daschland)/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A421C2-B734-0B4F-BD64-597A3E138028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21FA80E-02DE-9642-AB12-88669E0F7399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="500" windowWidth="34220" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42480" yWindow="500" windowWidth="34220" windowHeight="27920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data_model_files/daschland (daschland)/resources.xlsx
+++ b/data_model_files/daschland (daschland)/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21FA80E-02DE-9642-AB12-88669E0F7399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A144FB8D-C28D-5C48-B6A1-6478A376BDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42480" yWindow="500" windowWidth="34220" windowHeight="27920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="34220" windowHeight="27920" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="133">
   <si>
     <t>name</t>
   </si>
@@ -970,9 +970,6 @@
   </si>
   <si>
     <t>hasDescription</t>
-  </si>
-  <si>
-    <t>isPartOf</t>
   </si>
   <si>
     <t>hasChapterNumber</t>
@@ -1226,16 +1223,42 @@
   <si>
     <t>Foglio informativo</t>
   </si>
+  <si>
+    <t>hasLicenseList</t>
+  </si>
+  <si>
+    <t>isPartOfAnimalCharacterID</t>
+  </si>
+  <si>
+    <t>isPartOfFairytaleID</t>
+  </si>
+  <si>
+    <t>hasFilename</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1301,21 +1324,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1535,7 +1560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
@@ -1614,13 +1639,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>13</v>
@@ -1634,13 +1659,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>16</v>
@@ -1654,13 +1679,13 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>13</v>
@@ -1674,13 +1699,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>13</v>
@@ -1694,13 +1719,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>13</v>
@@ -1714,13 +1739,13 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>13</v>
@@ -1734,13 +1759,13 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>16</v>
@@ -1748,19 +1773,19 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>25</v>
@@ -1768,19 +1793,19 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>25</v>
@@ -1788,19 +1813,19 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>25</v>
@@ -1814,13 +1839,13 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>30</v>
@@ -1834,13 +1859,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>33</v>
@@ -1848,19 +1873,19 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>34</v>
@@ -1868,19 +1893,19 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
         <v>127</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" t="s">
         <v>128</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" t="s">
-        <v>129</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>35</v>
@@ -1888,19 +1913,19 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" t="s">
         <v>97</v>
-      </c>
-      <c r="E16" t="s">
-        <v>98</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>36</v>
@@ -2925,7 +2950,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2969,7 +2994,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2988,11 +3013,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A6"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3015,7 +3040,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3025,11 +3050,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
+      <c r="A3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -3037,7 +3062,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -3048,7 +3073,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -3059,7 +3084,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -3068,7 +3093,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4062,6 +4097,7 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" location="resource-cardinalities" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
@@ -4076,8 +4112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4099,7 +4135,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -4110,18 +4146,18 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -4131,8 +4167,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>68</v>
+      <c r="A5" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -4143,7 +4179,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -4152,7 +4188,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5179,7 +5225,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -5231,7 +5277,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -5283,7 +5329,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -5341,7 +5387,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -8373,7 +8419,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8394,7 +8440,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -8404,8 +8450,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>45</v>
+      <c r="A3" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -8416,7 +8462,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -8438,7 +8484,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -8483,7 +8529,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -8494,7 +8540,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -8505,7 +8551,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -8516,7 +8562,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -8527,7 +8573,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -8538,7 +8584,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>40</v>
@@ -8549,7 +8595,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>40</v>
@@ -8582,7 +8628,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>40</v>
@@ -8593,7 +8639,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>40</v>
@@ -11607,7 +11653,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -11618,7 +11664,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -11629,7 +11675,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -11651,7 +11697,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -11662,7 +11708,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>40</v>
@@ -11673,7 +11719,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>40</v>
@@ -11684,7 +11730,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>40</v>
@@ -11695,7 +11741,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>40</v>
@@ -11706,7 +11752,7 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>40</v>
@@ -11717,7 +11763,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>40</v>
@@ -11728,7 +11774,7 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>40</v>
@@ -11739,7 +11785,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>40</v>
@@ -11761,7 +11807,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>40</v>
@@ -14763,7 +14809,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -14774,7 +14820,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -14785,7 +14831,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -14807,7 +14853,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -17836,7 +17882,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -17847,7 +17893,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -17858,7 +17904,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -17869,7 +17915,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -20873,7 +20919,7 @@
   <sheetViews>
     <sheetView zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C2"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20895,7 +20941,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -20906,7 +20952,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -20917,7 +20963,7 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -20927,8 +20973,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>68</v>
+      <c r="A5" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -20939,7 +20985,7 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -20965,7 +21011,7 @@
   <sheetViews>
     <sheetView zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20986,8 +21032,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>45</v>
+      <c r="A2" s="11" t="s">
+        <v>130</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
@@ -20998,7 +21044,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>

--- a/data_model_files/daschland (daschland)/resources.xlsx
+++ b/data_model_files/daschland (daschland)/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A144FB8D-C28D-5C48-B6A1-6478A376BDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B9B7A2-9F59-894C-9AE1-D5E8E78CCB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="34220" windowHeight="27920" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8300" yWindow="760" windowWidth="26100" windowHeight="21580" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="132">
   <si>
     <t>name</t>
   </si>
@@ -1086,9 +1086,6 @@
     <t>hasDepartementList</t>
   </si>
   <si>
-    <t>hasCharacterTypeList</t>
-  </si>
-  <si>
     <t>Conte de fées</t>
   </si>
   <si>
@@ -1240,11 +1237,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1324,21 +1328,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1639,13 +1644,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>13</v>
@@ -1659,13 +1664,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>16</v>
@@ -1679,13 +1684,13 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>13</v>
@@ -1699,13 +1704,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>13</v>
@@ -1719,13 +1724,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>13</v>
@@ -1739,13 +1744,13 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>13</v>
@@ -1759,13 +1764,13 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>16</v>
@@ -1779,13 +1784,13 @@
         <v>24</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>25</v>
@@ -1799,13 +1804,13 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>25</v>
@@ -1819,13 +1824,13 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>25</v>
@@ -1839,13 +1844,13 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>30</v>
@@ -1859,13 +1864,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>33</v>
@@ -1879,13 +1884,13 @@
         <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>34</v>
@@ -1896,16 +1901,16 @@
         <v>74</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
         <v>126</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" t="s">
         <v>127</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E15" t="s">
-        <v>128</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>35</v>
@@ -1919,13 +1924,13 @@
         <v>75</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
         <v>96</v>
-      </c>
-      <c r="E16" t="s">
-        <v>97</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>36</v>
@@ -3051,7 +3056,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -4112,8 +4117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4168,7 +4173,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -4190,7 +4195,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8451,7 +8456,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -8507,7 +8512,7 @@
   <sheetViews>
     <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11631,7 +11636,7 @@
   <sheetViews>
     <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14783,10 +14788,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14826,12 +14831,12 @@
         <v>40</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -14842,24 +14847,22 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A6" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17840,9 +17843,6 @@
     </row>
     <row r="999" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B999" s="5"/>
-    </row>
-    <row r="1000" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1000" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -20974,7 +20974,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -21033,7 +21033,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>

--- a/data_model_files/daschland (daschland)/resources.xlsx
+++ b/data_model_files/daschland (daschland)/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B9B7A2-9F59-894C-9AE1-D5E8E78CCB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C8225E-763B-D543-9AD7-E4A576A4994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="760" windowWidth="26100" windowHeight="21580" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8300" yWindow="760" windowWidth="53320" windowHeight="23220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -1565,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5211,11 +5211,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DD1D84-08CE-9143-8415-F965653098E0}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -5263,11 +5266,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320A60DE-12A9-E74A-B179-F262EC2167CE}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -5315,11 +5321,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4923EDA-7D11-B64C-B196-7C6BEDB40A6D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -14790,7 +14799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/data_model_files/daschland (daschland)/resources.xlsx
+++ b/data_model_files/daschland (daschland)/resources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data_model_files/daschland (daschland)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C8225E-763B-D543-9AD7-E4A576A4994A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A09A12-3C2F-5A42-A691-38C31D66D8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="760" windowWidth="53320" windowHeight="23220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8300" yWindow="760" windowWidth="53320" windowHeight="23220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="133">
   <si>
     <t>name</t>
   </si>
@@ -1232,16 +1232,33 @@
   <si>
     <t>hasFilename</t>
   </si>
+  <si>
+    <t>0-1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1328,26 +1345,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1565,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -5377,7 +5401,7 @@
   <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5418,11 +5442,19 @@
         <v>40</v>
       </c>
       <c r="C3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
@@ -8430,10 +8462,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8478,11 +8510,11 @@
       <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>40</v>
+      <c r="B4" s="15" t="s">
+        <v>132</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8493,7 +8525,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8504,7 +8536,18 @@
         <v>40</v>
       </c>
       <c r="C6" s="3">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="14">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data_model_files/daschland (daschland)/resources.xlsx
+++ b/data_model_files/daschland (daschland)/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A09A12-3C2F-5A42-A691-38C31D66D8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58309AD3-D255-7A44-AF9C-8949FB4A4EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="760" windowWidth="53320" windowHeight="23220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13140" yWindow="1800" windowWidth="53320" windowHeight="23220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="131">
   <si>
     <t>name</t>
   </si>
@@ -1029,16 +1029,10 @@
     <t>hasName</t>
   </si>
   <si>
-    <t>hasWonderlandLocation</t>
-  </si>
-  <si>
     <t>hasTimeStamp</t>
   </si>
   <si>
     <t>hasCopyright</t>
-  </si>
-  <si>
-    <t>hasLicense</t>
   </si>
   <si>
     <t>hasFileName</t>
@@ -1230,21 +1224,49 @@
     <t>isPartOfFairytaleID</t>
   </si>
   <si>
-    <t>hasFilename</t>
+    <t>0-1</t>
   </si>
   <si>
-    <t>0-1</t>
+    <t>hasWonderlandLocationList</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1345,29 +1367,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1590,7 +1621,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1668,13 +1699,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>13</v>
@@ -1688,13 +1719,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>16</v>
@@ -1708,13 +1739,13 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>13</v>
@@ -1728,13 +1759,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>13</v>
@@ -1748,13 +1779,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>13</v>
@@ -1768,13 +1799,13 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>13</v>
@@ -1788,13 +1819,13 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>16</v>
@@ -1802,19 +1833,19 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>25</v>
@@ -1822,19 +1853,19 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>25</v>
@@ -1842,19 +1873,19 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>25</v>
@@ -1868,13 +1899,13 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>30</v>
@@ -1888,13 +1919,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>33</v>
@@ -1902,19 +1933,19 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>34</v>
@@ -1922,19 +1953,19 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" t="s">
         <v>125</v>
-      </c>
-      <c r="C15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>35</v>
@@ -1942,19 +1973,19 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>36</v>
@@ -3046,7 +3077,7 @@
   <sheetViews>
     <sheetView zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3079,8 +3110,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>131</v>
+      <c r="A3" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -3091,10 +3122,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3102,21 +3133,21 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
+      <c r="A6" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3124,10 +3155,10 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -4142,7 +4173,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4175,10 +4206,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4186,10 +4217,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -4197,10 +4228,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -4208,18 +4239,18 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>68</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>131</v>
+      <c r="A7" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5346,7 +5377,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5450,7 +5481,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -8462,10 +8493,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8497,7 +8528,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -8511,7 +8542,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
@@ -8544,10 +8575,21 @@
         <v>63</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C7" s="14">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="18">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -8562,9 +8604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1007"/>
   <sheetViews>
-    <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8610,8 +8652,8 @@
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>40</v>
+      <c r="B4" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -8621,8 +8663,8 @@
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
+      <c r="B5" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -8641,7 +8683,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>40</v>
@@ -8665,8 +8707,8 @@
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
+      <c r="B9" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -8685,10 +8727,10 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
+        <v>79</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -8696,7 +8738,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>40</v>
@@ -8705,7 +8747,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="19">
+        <v>12</v>
+      </c>
+    </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11688,7 +11740,7 @@
   <sheetViews>
     <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11732,10 +11784,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>78</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -11811,8 +11863,8 @@
       <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
+      <c r="B11" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -11820,10 +11872,10 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>76</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
@@ -11833,8 +11885,8 @@
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>40</v>
+      <c r="B13" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
@@ -11844,8 +11896,8 @@
       <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>40</v>
+      <c r="B14" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
@@ -11855,8 +11907,8 @@
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>40</v>
+      <c r="B15" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
@@ -11864,7 +11916,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>40</v>
@@ -14843,7 +14895,7 @@
   <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14912,7 +14964,9 @@
       <c r="A6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="17" t="s">
+        <v>129</v>
+      </c>
       <c r="C6">
         <v>2</v>
       </c>
@@ -17912,7 +17966,7 @@
   <sheetViews>
     <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A5"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17947,8 +18001,8 @@
       <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
+      <c r="B3" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -17958,19 +18012,19 @@
       <c r="A4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>40</v>
+      <c r="B4" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
+      <c r="A5" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -20971,7 +21025,7 @@
   <sheetViews>
     <sheetView zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21004,10 +21058,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>64</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -21015,10 +21069,10 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -21026,10 +21080,10 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>126</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -21037,10 +21091,10 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>40</v>
+        <v>66</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -21063,7 +21117,7 @@
   <sheetViews>
     <sheetView zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21085,7 +21139,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
@@ -21096,10 +21150,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C3">
         <v>2</v>

--- a/data_model_files/daschland (daschland)/resources.xlsx
+++ b/data_model_files/daschland (daschland)/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58309AD3-D255-7A44-AF9C-8949FB4A4EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761DD4C7-0ED3-404D-B302-A4F1BD855C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13140" yWindow="1800" windowWidth="53320" windowHeight="23220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17920" yWindow="500" windowWidth="53320" windowHeight="23220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -835,7 +835,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="132">
   <si>
     <t>name</t>
   </si>
@@ -976,9 +976,6 @@
   </si>
   <si>
     <t>linkToAnimalCharacterID</t>
-  </si>
-  <si>
-    <t>linkToImageID</t>
   </si>
   <si>
     <t>hasFirstName</t>
@@ -1229,16 +1226,36 @@
   <si>
     <t>hasWonderlandLocationList</t>
   </si>
+  <si>
+    <t>linkToImageCharacterID</t>
+  </si>
+  <si>
+    <t>linkToAliceImageID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1367,42 +1384,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1699,13 +1718,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>13</v>
@@ -1719,13 +1738,13 @@
         <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>16</v>
@@ -1739,13 +1758,13 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>13</v>
@@ -1759,13 +1778,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>13</v>
@@ -1779,13 +1798,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>13</v>
@@ -1799,13 +1818,13 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>13</v>
@@ -1819,13 +1838,13 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>16</v>
@@ -1833,19 +1852,19 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>25</v>
@@ -1853,19 +1872,19 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>25</v>
@@ -1873,19 +1892,19 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>25</v>
@@ -1899,13 +1918,13 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>30</v>
@@ -1919,13 +1938,13 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>33</v>
@@ -1933,19 +1952,19 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>34</v>
@@ -1953,19 +1972,19 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
         <v>123</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" t="s">
         <v>124</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" t="s">
-        <v>125</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>35</v>
@@ -1973,19 +1992,19 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" t="s">
         <v>93</v>
-      </c>
-      <c r="E16" t="s">
-        <v>94</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>36</v>
@@ -3010,7 +3029,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3054,7 +3073,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3100,7 +3119,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -3111,7 +3130,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -3122,10 +3141,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -3133,10 +3152,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3144,10 +3163,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3155,10 +3174,10 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -4195,7 +4214,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -4206,10 +4225,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -4217,10 +4236,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -4228,10 +4247,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -4239,10 +4258,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -4250,7 +4269,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5288,7 +5307,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -5343,7 +5362,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -5398,7 +5417,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -5456,7 +5475,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -5478,10 +5497,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -8517,7 +8536,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -8528,7 +8547,7 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -8542,7 +8561,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
@@ -8572,10 +8591,10 @@
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="14">
         <v>3</v>
@@ -8583,7 +8602,7 @@
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>40</v>
@@ -8604,9 +8623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
+    <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8628,7 +8647,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -8638,8 +8657,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>47</v>
+      <c r="A3" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -8650,10 +8669,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -8661,10 +8680,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -8672,7 +8691,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -8683,7 +8702,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>40</v>
@@ -8694,7 +8713,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>40</v>
@@ -8708,7 +8727,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -8727,10 +8746,10 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -8738,7 +8757,7 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>40</v>
@@ -8752,7 +8771,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="19">
         <v>12</v>
@@ -11762,7 +11781,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -11773,7 +11792,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -11784,10 +11803,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -11806,7 +11825,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>40</v>
@@ -11817,7 +11836,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>40</v>
@@ -11828,7 +11847,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>40</v>
@@ -11839,7 +11858,7 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>40</v>
@@ -11850,7 +11869,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>40</v>
@@ -11861,10 +11880,10 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -11872,10 +11891,10 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
@@ -11883,10 +11902,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
@@ -11894,10 +11913,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="3">
         <v>13</v>
@@ -11908,7 +11927,7 @@
         <v>41</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
@@ -11916,7 +11935,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>40</v>
@@ -14894,8 +14913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C999"/>
   <sheetViews>
-    <sheetView zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14918,7 +14937,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -14928,8 +14947,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>47</v>
+      <c r="A3" s="22" t="s">
+        <v>131</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>40</v>
@@ -14951,7 +14970,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>40</v>
@@ -14962,10 +14981,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -17988,7 +18007,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -17999,10 +18018,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -18010,10 +18029,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -18021,10 +18040,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -21047,7 +21066,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -21058,10 +21077,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -21069,10 +21088,10 @@
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -21080,10 +21099,10 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -21091,10 +21110,10 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -21139,7 +21158,7 @@
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
@@ -21150,10 +21169,10 @@
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3">
         <v>2</v>

--- a/data_model_files/daschland (daschland)/resources.xlsx
+++ b/data_model_files/daschland (daschland)/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFAC13F-E5F3-4849-BDB7-5B588E1BA59A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218EADD8-CEB5-E944-94E2-C206CDEE2765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35220" yWindow="12320" windowWidth="37700" windowHeight="18580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62960" yWindow="500" windowWidth="13840" windowHeight="31500" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -1420,7 +1420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -1778,16 +1778,29 @@
   <si>
     <t>hasAuthor</t>
   </si>
+  <si>
+    <t>hasAlternativeDescription</t>
+  </si>
+  <si>
+    <t>hasUrl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1901,31 +1914,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3631,7 +3648,7 @@
   <sheetViews>
     <sheetView zoomScale="218" zoomScaleNormal="218" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6084,7 +6101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4923EDA-7D11-B64C-B196-7C6BEDB40A6D}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -6150,13 +6167,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="26" width="10.5" customWidth="1"/>
@@ -6218,73 +6235,81 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
+      <c r="A6" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
+      <c r="A12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
@@ -9255,8 +9280,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C11">
-      <sortCondition ref="C1:C11"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+      <sortCondition ref="C1:C12"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -9273,10 +9298,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="225" zoomScaleNormal="225" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9361,6 +9386,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="19">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
@@ -9371,6 +9407,7 @@
     <hyperlink ref="A1" r:id="rId1" location="resource-cardinalities" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -9380,7 +9417,7 @@
   <sheetViews>
     <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D7"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12451,7 +12488,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12659,7 +12696,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12705,6 +12742,7 @@
     <hyperlink ref="A1" r:id="rId1" location="resource-cardinalities" xr:uid="{2C066A15-97D2-AC43-8382-D733871A0C2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/data_model_files/daschland (daschland)/resources.xlsx
+++ b/data_model_files/daschland (daschland)/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data_model_files/daschland (daschland)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218EADD8-CEB5-E944-94E2-C206CDEE2765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747A9070-74EC-8543-AED1-732FAA21DCEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62960" yWindow="500" windowWidth="13840" windowHeight="31500" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13280" yWindow="500" windowWidth="20080" windowHeight="31500" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -1789,11 +1789,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1914,31 +1928,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1947,10 +1969,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3773,9 +3791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C7"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3819,22 +3837,22 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>27</v>
+      <c r="A4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>51</v>
+      <c r="A5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3842,7 +3860,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>51</v>
@@ -3852,17 +3870,27 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>51</v>
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4858,8 +4886,8 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C7">
-      <sortCondition ref="C1:C7"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+      <sortCondition ref="C1:C8"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -4876,7 +4904,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4919,22 +4947,22 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>27</v>
+      <c r="A4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>51</v>
+      <c r="A5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -4942,7 +4970,7 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>51</v>
@@ -4952,17 +4980,27 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>51</v>
+      <c r="A7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6101,7 +6139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4923EDA-7D11-B64C-B196-7C6BEDB40A6D}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
+    <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
